--- a/events.xlsx
+++ b/events.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="48">
   <si>
     <t>Date</t>
   </si>
@@ -39,6 +39,9 @@
     <t>Wafat Yesus Kristus</t>
   </si>
   <si>
+    <t>Kebangkitan Yesus Kristus</t>
+  </si>
+  <si>
     <t>Hari Buruh Internasional</t>
   </si>
   <si>
@@ -75,9 +78,6 @@
     <t>Natal</t>
   </si>
   <si>
-    <t>Kebangkitan Yesus Kristus</t>
-  </si>
-  <si>
     <t>Cuti bersama tahun baru</t>
   </si>
   <si>
@@ -93,12 +93,42 @@
     <t>Cuti Bersama Maulid Nabi Muhammad SAW</t>
   </si>
   <si>
+    <t>Idul Fitri 1</t>
+  </si>
+  <si>
+    <t>Idul Fitri 2</t>
+  </si>
+  <si>
+    <t>Cuti Bersama Hari Raya Idul Fitri H+1</t>
+  </si>
+  <si>
+    <t>Cuti Bersama Hari Raya Idul Fitri H+2</t>
+  </si>
+  <si>
+    <t>Cuti Bersama Hari Raya Idul Fitri H+3</t>
+  </si>
+  <si>
+    <t>Libur Sekolah Hari Sabtu Week 1 Bulan Juli</t>
+  </si>
+  <si>
+    <t>Libur Sekolah Hari Minggu Week 1 Bulan Juli</t>
+  </si>
+  <si>
     <t>Cuti Bersama Imlek</t>
   </si>
   <si>
     <t>Cuti Bersama Nyepi</t>
   </si>
   <si>
+    <t>Cuti Bersama Hari Raya Idul Fitri H-3</t>
+  </si>
+  <si>
+    <t>Cuti Bersama Hari Raya Idul Fitri H-2</t>
+  </si>
+  <si>
+    <t>Cuti Bersama Hari Raya Idul Fitri H-1</t>
+  </si>
+  <si>
     <t>Cuti Bersama Waisak</t>
   </si>
   <si>
@@ -108,6 +138,9 @@
     <t>Cuti Bersama Hari Raya Nyepi</t>
   </si>
   <si>
+    <t>Cuti Bersama Hari Raya Idul Fitri H+4</t>
+  </si>
+  <si>
     <t>Cuti Bersama Kenaikan Yesus Kristus</t>
   </si>
   <si>
@@ -115,6 +148,12 @@
   </si>
   <si>
     <t>Cuti Bersama Tahun Baru Imlek</t>
+  </si>
+  <si>
+    <t>Cuti Bersama Hari Raya Idul Fitri H+5</t>
+  </si>
+  <si>
+    <t>Cuti Bersama Hari Raya Idul Fitri H+6</t>
   </si>
   <si>
     <t>Start Date</t>
@@ -127,8 +166,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -182,12 +222,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -482,7 +523,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B256"/>
+  <dimension ref="A1:B291"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -538,7 +579,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>42125</v>
+        <v>42099</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -546,7 +587,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>42138</v>
+        <v>42125</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -554,7 +595,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>42140</v>
+        <v>42138</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
@@ -562,7 +603,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>42157</v>
+        <v>42140</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -570,7 +611,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>42201</v>
+        <v>42157</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -578,7 +619,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>42202</v>
+        <v>42201</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
@@ -586,39 +627,39 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>42203</v>
+        <v>42202</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>42205</v>
+        <v>42203</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>42206</v>
+        <v>42205</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>42233</v>
+        <v>42206</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>42271</v>
+        <v>42233</v>
       </c>
       <c r="B17" t="s">
         <v>14</v>
@@ -626,7 +667,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>42291</v>
+        <v>42271</v>
       </c>
       <c r="B18" t="s">
         <v>15</v>
@@ -634,7 +675,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>42347</v>
+        <v>42291</v>
       </c>
       <c r="B19" t="s">
         <v>16</v>
@@ -642,7 +683,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>42362</v>
+        <v>42347</v>
       </c>
       <c r="B20" t="s">
         <v>17</v>
@@ -650,7 +691,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>42363</v>
+        <v>42362</v>
       </c>
       <c r="B21" t="s">
         <v>18</v>
@@ -658,7 +699,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>42099</v>
+        <v>42363</v>
       </c>
       <c r="B22" t="s">
         <v>19</v>
@@ -698,7 +739,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>42491</v>
+        <v>42456</v>
       </c>
       <c r="B27" t="s">
         <v>7</v>
@@ -706,7 +747,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>42495</v>
+        <v>42491</v>
       </c>
       <c r="B28" t="s">
         <v>8</v>
@@ -714,7 +755,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>42496</v>
+        <v>42495</v>
       </c>
       <c r="B29" t="s">
         <v>9</v>
@@ -722,7 +763,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>42512</v>
+        <v>42496</v>
       </c>
       <c r="B30" t="s">
         <v>10</v>
@@ -730,7 +771,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>42555</v>
+        <v>42512</v>
       </c>
       <c r="B31" t="s">
         <v>11</v>
@@ -738,15 +779,15 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>42556</v>
+        <v>42555</v>
       </c>
       <c r="B32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>42557</v>
+        <v>42556</v>
       </c>
       <c r="B33" t="s">
         <v>12</v>
@@ -754,31 +795,31 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>42558</v>
+        <v>42557</v>
       </c>
       <c r="B34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>42559</v>
+        <v>42558</v>
       </c>
       <c r="B35" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>42599</v>
+        <v>42559</v>
       </c>
       <c r="B36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>42625</v>
+        <v>42599</v>
       </c>
       <c r="B37" t="s">
         <v>14</v>
@@ -786,7 +827,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>42645</v>
+        <v>42625</v>
       </c>
       <c r="B38" t="s">
         <v>15</v>
@@ -794,34 +835,34 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>42716</v>
+        <v>42645</v>
       </c>
       <c r="B39" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>42729</v>
+        <v>42716</v>
       </c>
       <c r="B40" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>42730</v>
+        <v>42729</v>
       </c>
       <c r="B41" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>42456</v>
+        <v>42730</v>
       </c>
       <c r="B42" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -853,7 +894,7 @@
         <v>42781</v>
       </c>
       <c r="B46" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -874,103 +915,103 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>42849</v>
+        <v>42841</v>
       </c>
       <c r="B49" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>42856</v>
+        <v>42849</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>42866</v>
+        <v>42856</v>
       </c>
       <c r="B51" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>42880</v>
+        <v>42866</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>42887</v>
+        <v>42880</v>
       </c>
       <c r="B53" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>42911</v>
+        <v>42887</v>
       </c>
       <c r="B54" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>42912</v>
+        <v>42911</v>
       </c>
       <c r="B55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>42913</v>
+        <v>42912</v>
       </c>
       <c r="B56" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>42914</v>
+        <v>42913</v>
       </c>
       <c r="B57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>42915</v>
+        <v>42914</v>
       </c>
       <c r="B58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>42916</v>
+        <v>42915</v>
       </c>
       <c r="B59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>42964</v>
+        <v>42916</v>
       </c>
       <c r="B60" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>42979</v>
+        <v>42964</v>
       </c>
       <c r="B61" t="s">
         <v>14</v>
@@ -978,7 +1019,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>42999</v>
+        <v>42979</v>
       </c>
       <c r="B62" t="s">
         <v>15</v>
@@ -986,34 +1027,34 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>43070</v>
+        <v>42999</v>
       </c>
       <c r="B63" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>43094</v>
+        <v>43070</v>
       </c>
       <c r="B64" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>43095</v>
+        <v>43094</v>
       </c>
       <c r="B65" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>42841</v>
+        <v>43095</v>
       </c>
       <c r="B66" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1050,23 +1091,23 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>43204</v>
+        <v>43191</v>
       </c>
       <c r="B71" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>43221</v>
+        <v>43204</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>43230</v>
+        <v>43221</v>
       </c>
       <c r="B73" t="s">
         <v>8</v>
@@ -1074,55 +1115,55 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>43249</v>
+        <v>43230</v>
       </c>
       <c r="B74" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>43252</v>
+        <v>43249</v>
       </c>
       <c r="B75" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>43262</v>
+        <v>43252</v>
       </c>
       <c r="B76" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>43263</v>
+        <v>43262</v>
       </c>
       <c r="B77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>43264</v>
+        <v>43263</v>
       </c>
       <c r="B78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>43265</v>
+        <v>43264</v>
       </c>
       <c r="B79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>43266</v>
+        <v>43265</v>
       </c>
       <c r="B80" t="s">
         <v>12</v>
@@ -1130,55 +1171,55 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>43267</v>
+        <v>43266</v>
       </c>
       <c r="B81" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>43269</v>
+        <v>43267</v>
       </c>
       <c r="B82" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>43270</v>
+        <v>43269</v>
       </c>
       <c r="B83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>43271</v>
+        <v>43270</v>
       </c>
       <c r="B84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>43278</v>
+        <v>43271</v>
       </c>
       <c r="B85" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>43329</v>
+        <v>43278</v>
       </c>
       <c r="B86" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>43334</v>
+        <v>43329</v>
       </c>
       <c r="B87" t="s">
         <v>14</v>
@@ -1186,7 +1227,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>43354</v>
+        <v>43334</v>
       </c>
       <c r="B88" t="s">
         <v>15</v>
@@ -1194,23 +1235,23 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>43424</v>
+        <v>43354</v>
       </c>
       <c r="B89" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>43458</v>
+        <v>43424</v>
       </c>
       <c r="B90" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>43459</v>
+        <v>43458</v>
       </c>
       <c r="B91" t="s">
         <v>18</v>
@@ -1218,7 +1259,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>43191</v>
+        <v>43459</v>
       </c>
       <c r="B92" t="s">
         <v>19</v>
@@ -1253,7 +1294,7 @@
         <v>43558</v>
       </c>
       <c r="B96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1266,7 +1307,7 @@
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="2">
-        <v>43586</v>
+        <v>43576</v>
       </c>
       <c r="B98" t="s">
         <v>7</v>
@@ -1274,47 +1315,47 @@
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="2">
-        <v>43604</v>
+        <v>43586</v>
       </c>
       <c r="B99" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="2">
-        <v>43615</v>
+        <v>43604</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="2">
-        <v>43617</v>
+        <v>43615</v>
       </c>
       <c r="B101" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="2">
-        <v>43619</v>
+        <v>43617</v>
       </c>
       <c r="B102" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="2">
-        <v>43620</v>
+        <v>43619</v>
       </c>
       <c r="B103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="2">
-        <v>43621</v>
+        <v>43620</v>
       </c>
       <c r="B104" t="s">
         <v>12</v>
@@ -1322,63 +1363,63 @@
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="2">
-        <v>43622</v>
+        <v>43621</v>
       </c>
       <c r="B105" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="2">
-        <v>43623</v>
+        <v>43622</v>
       </c>
       <c r="B106" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="2">
-        <v>43688</v>
+        <v>43623</v>
       </c>
       <c r="B107" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="2">
-        <v>43694</v>
+        <v>43688</v>
       </c>
       <c r="B108" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="2">
-        <v>43709</v>
+        <v>43694</v>
       </c>
       <c r="B109" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="2">
-        <v>43778</v>
+        <v>43709</v>
       </c>
       <c r="B110" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="2">
-        <v>43823</v>
+        <v>43778</v>
       </c>
       <c r="B111" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="2">
-        <v>43824</v>
+        <v>43823</v>
       </c>
       <c r="B112" t="s">
         <v>18</v>
@@ -1386,7 +1427,7 @@
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="2">
-        <v>43576</v>
+        <v>43824</v>
       </c>
       <c r="B113" t="s">
         <v>19</v>
@@ -1413,7 +1454,7 @@
         <v>43912</v>
       </c>
       <c r="B116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1434,7 +1475,7 @@
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="2">
-        <v>43952</v>
+        <v>43933</v>
       </c>
       <c r="B119" t="s">
         <v>7</v>
@@ -1442,111 +1483,111 @@
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="2">
-        <v>43958</v>
+        <v>43952</v>
       </c>
       <c r="B120" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="2">
-        <v>43972</v>
+        <v>43958</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="2">
-        <v>43975</v>
+        <v>43972</v>
       </c>
       <c r="B122" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="2">
-        <v>43976</v>
+        <v>43975</v>
       </c>
       <c r="B123" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="2">
-        <v>43983</v>
+        <v>43976</v>
       </c>
       <c r="B124" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="2">
-        <v>44043</v>
+        <v>43983</v>
       </c>
       <c r="B125" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="2">
-        <v>44060</v>
+        <v>44043</v>
       </c>
       <c r="B126" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="2">
-        <v>44063</v>
+        <v>44060</v>
       </c>
       <c r="B127" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="2">
-        <v>44064</v>
+        <v>44063</v>
       </c>
       <c r="B128" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="2">
-        <v>44132</v>
+        <v>44064</v>
       </c>
       <c r="B129" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="2">
-        <v>44133</v>
+        <v>44132</v>
       </c>
       <c r="B130" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="2">
-        <v>44134</v>
+        <v>44133</v>
       </c>
       <c r="B131" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="2">
-        <v>44174</v>
+        <v>44134</v>
       </c>
       <c r="B132" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="2">
-        <v>44189</v>
+        <v>44174</v>
       </c>
       <c r="B133" t="s">
         <v>17</v>
@@ -1554,7 +1595,7 @@
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="2">
-        <v>44190</v>
+        <v>44189</v>
       </c>
       <c r="B134" t="s">
         <v>18</v>
@@ -1562,18 +1603,18 @@
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="2">
-        <v>44196</v>
+        <v>44190</v>
       </c>
       <c r="B135" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="2">
-        <v>43933</v>
+        <v>44196</v>
       </c>
       <c r="B136" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -1597,7 +1638,7 @@
         <v>44266</v>
       </c>
       <c r="B139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -1618,7 +1659,7 @@
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="2">
-        <v>44317</v>
+        <v>44290</v>
       </c>
       <c r="B142" t="s">
         <v>7</v>
@@ -1626,15 +1667,15 @@
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="2">
-        <v>44328</v>
+        <v>44317</v>
       </c>
       <c r="B143" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="2">
-        <v>44329</v>
+        <v>44328</v>
       </c>
       <c r="B144" t="s">
         <v>12</v>
@@ -1642,39 +1683,39 @@
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="2">
-        <v>44330</v>
+        <v>44329</v>
       </c>
       <c r="B145" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="2">
-        <v>44342</v>
+        <v>44330</v>
       </c>
       <c r="B146" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="2">
-        <v>44348</v>
+        <v>44342</v>
       </c>
       <c r="B147" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="2">
-        <v>44397</v>
+        <v>44348</v>
       </c>
       <c r="B148" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="2">
-        <v>44419</v>
+        <v>44397</v>
       </c>
       <c r="B149" t="s">
         <v>15</v>
@@ -1682,31 +1723,31 @@
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="2">
-        <v>44425</v>
+        <v>44419</v>
       </c>
       <c r="B150" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="2">
-        <v>44489</v>
+        <v>44425</v>
       </c>
       <c r="B151" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="2">
-        <v>44555</v>
+        <v>44489</v>
       </c>
       <c r="B152" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="2">
-        <v>44290</v>
+        <v>44555</v>
       </c>
       <c r="B153" t="s">
         <v>19</v>
@@ -1733,7 +1774,7 @@
         <v>44620</v>
       </c>
       <c r="B156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -1754,247 +1795,247 @@
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="2">
-        <v>44680</v>
+        <v>44668</v>
       </c>
       <c r="B159" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="2">
-        <v>44682</v>
+        <v>44680</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="2">
-        <v>44683</v>
+        <v>44682</v>
       </c>
       <c r="B161" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="2">
-        <v>44684</v>
+        <v>44683</v>
       </c>
       <c r="B162" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="2">
-        <v>44685</v>
+        <v>44683</v>
       </c>
       <c r="B163" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="2">
-        <v>44686</v>
+        <v>44684</v>
       </c>
       <c r="B164" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="2">
-        <v>44687</v>
+        <v>44684</v>
       </c>
       <c r="B165" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="2">
-        <v>44697</v>
+        <v>44685</v>
       </c>
       <c r="B166" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="2">
-        <v>44707</v>
+        <v>44685</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="2">
-        <v>44713</v>
+        <v>44686</v>
       </c>
       <c r="B168" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="2">
-        <v>44751</v>
+        <v>44686</v>
       </c>
       <c r="B169" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="2">
-        <v>44772</v>
+        <v>44687</v>
       </c>
       <c r="B170" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="2">
-        <v>44790</v>
+        <v>44687</v>
       </c>
       <c r="B171" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="2">
-        <v>44842</v>
+        <v>44697</v>
       </c>
       <c r="B172" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" s="2">
-        <v>44920</v>
+        <v>44707</v>
       </c>
       <c r="B173" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="2">
-        <v>44668</v>
+        <v>44713</v>
       </c>
       <c r="B174" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="2">
-        <v>44927</v>
+        <v>44744</v>
       </c>
       <c r="B175" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="2">
-        <v>44948</v>
+        <v>44745</v>
       </c>
       <c r="B176" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="2">
-        <v>44949</v>
+        <v>44751</v>
       </c>
       <c r="B177" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="2">
-        <v>44975</v>
+        <v>44772</v>
       </c>
       <c r="B178" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="2">
-        <v>45007</v>
+        <v>44790</v>
       </c>
       <c r="B179" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="2">
-        <v>45008</v>
+        <v>44842</v>
       </c>
       <c r="B180" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="2">
-        <v>45023</v>
+        <v>44920</v>
       </c>
       <c r="B181" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="2">
-        <v>45035</v>
+        <v>44927</v>
       </c>
       <c r="B182" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="2">
-        <v>45036</v>
+        <v>44948</v>
       </c>
       <c r="B183" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="2">
-        <v>45037</v>
+        <v>44949</v>
       </c>
       <c r="B184" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="2">
-        <v>45038</v>
+        <v>44975</v>
       </c>
       <c r="B185" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="2">
-        <v>45039</v>
+        <v>45007</v>
       </c>
       <c r="B186" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="2">
-        <v>45040</v>
+        <v>45008</v>
       </c>
       <c r="B187" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="2">
-        <v>45041</v>
+        <v>45023</v>
       </c>
       <c r="B188" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="2">
-        <v>45047</v>
+        <v>45025</v>
       </c>
       <c r="B189" t="s">
         <v>7</v>
@@ -2002,471 +2043,471 @@
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="2">
-        <v>45064</v>
+        <v>45035</v>
       </c>
       <c r="B190" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="2">
-        <v>45078</v>
+        <v>45035</v>
       </c>
       <c r="B191" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="2">
-        <v>45079</v>
+        <v>45036</v>
       </c>
       <c r="B192" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="2">
-        <v>45081</v>
+        <v>45036</v>
       </c>
       <c r="B193" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" s="2">
-        <v>45105</v>
+        <v>45037</v>
       </c>
       <c r="B194" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" s="2">
-        <v>45106</v>
+        <v>45037</v>
       </c>
       <c r="B195" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" s="2">
-        <v>45107</v>
+        <v>45038</v>
       </c>
       <c r="B196" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" s="2">
-        <v>45126</v>
+        <v>45038</v>
       </c>
       <c r="B197" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" s="2">
-        <v>45155</v>
+        <v>45039</v>
       </c>
       <c r="B198" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" s="2">
-        <v>45197</v>
+        <v>45039</v>
       </c>
       <c r="B199" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" s="2">
-        <v>45285</v>
+        <v>45040</v>
       </c>
       <c r="B200" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" s="2">
-        <v>45286</v>
+        <v>45040</v>
       </c>
       <c r="B201" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" s="2">
-        <v>45025</v>
+        <v>45041</v>
       </c>
       <c r="B202" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" s="2">
-        <v>45292</v>
+        <v>45041</v>
       </c>
       <c r="B203" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="2">
-        <v>45330</v>
+        <v>45047</v>
       </c>
       <c r="B204" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="2">
-        <v>45331</v>
+        <v>45064</v>
       </c>
       <c r="B205" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206" s="2">
-        <v>45332</v>
+        <v>45078</v>
       </c>
       <c r="B206" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="2">
-        <v>45362</v>
+        <v>45079</v>
       </c>
       <c r="B207" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="2">
-        <v>45363</v>
+        <v>45081</v>
       </c>
       <c r="B208" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="2">
-        <v>45380</v>
+        <v>45105</v>
       </c>
       <c r="B209" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="2">
-        <v>45382</v>
+        <v>45106</v>
       </c>
       <c r="B210" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="2">
-        <v>45390</v>
+        <v>45107</v>
       </c>
       <c r="B211" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="2">
-        <v>45391</v>
+        <v>45108</v>
       </c>
       <c r="B212" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="2">
-        <v>45392</v>
+        <v>45126</v>
       </c>
       <c r="B213" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="2">
-        <v>45393</v>
+        <v>45155</v>
       </c>
       <c r="B214" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="2">
-        <v>45394</v>
+        <v>45197</v>
       </c>
       <c r="B215" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="2">
-        <v>45397</v>
+        <v>45285</v>
       </c>
       <c r="B216" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="2">
-        <v>45413</v>
+        <v>45286</v>
       </c>
       <c r="B217" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="2">
-        <v>45421</v>
+        <v>45292</v>
       </c>
       <c r="B218" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="2">
-        <v>45422</v>
+        <v>45330</v>
       </c>
       <c r="B219" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="2">
-        <v>45435</v>
+        <v>45331</v>
       </c>
       <c r="B220" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="2">
-        <v>45436</v>
+        <v>45332</v>
       </c>
       <c r="B221" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="2">
-        <v>45444</v>
+        <v>45362</v>
       </c>
       <c r="B222" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="2">
-        <v>45460</v>
+        <v>45363</v>
       </c>
       <c r="B223" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="2">
-        <v>45461</v>
+        <v>45380</v>
       </c>
       <c r="B224" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="2">
-        <v>45480</v>
+        <v>45382</v>
       </c>
       <c r="B225" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="2">
-        <v>45521</v>
+        <v>45390</v>
       </c>
       <c r="B226" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="2">
-        <v>45551</v>
+        <v>45390</v>
       </c>
       <c r="B227" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="2">
-        <v>45651</v>
+        <v>45391</v>
       </c>
       <c r="B228" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="2">
-        <v>45652</v>
+        <v>45391</v>
       </c>
       <c r="B229" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="2">
-        <v>45658</v>
+        <v>45392</v>
       </c>
       <c r="B230" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="2">
-        <v>45684</v>
+        <v>45392</v>
       </c>
       <c r="B231" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="2">
-        <v>45685</v>
+        <v>45393</v>
       </c>
       <c r="B232" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="2">
-        <v>45686</v>
+        <v>45393</v>
       </c>
       <c r="B233" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="2">
-        <v>45744</v>
+        <v>45394</v>
       </c>
       <c r="B234" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="2">
-        <v>45745</v>
+        <v>45394</v>
       </c>
       <c r="B235" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="2">
-        <v>45747</v>
+        <v>45395</v>
       </c>
       <c r="B236" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="2">
-        <v>45748</v>
+        <v>45396</v>
       </c>
       <c r="B237" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="2">
-        <v>45749</v>
+        <v>45397</v>
       </c>
       <c r="B238" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="2">
-        <v>45750</v>
+        <v>45397</v>
       </c>
       <c r="B239" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="2">
-        <v>45751</v>
+        <v>45413</v>
       </c>
       <c r="B240" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="2">
-        <v>45754</v>
+        <v>45421</v>
       </c>
       <c r="B241" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="2">
-        <v>45765</v>
+        <v>45422</v>
       </c>
       <c r="B242" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="2">
-        <v>45767</v>
+        <v>45435</v>
       </c>
       <c r="B243" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="2">
-        <v>45778</v>
+        <v>45436</v>
       </c>
       <c r="B244" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="2">
-        <v>45789</v>
+        <v>45444</v>
       </c>
       <c r="B245" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="2">
-        <v>45790</v>
+        <v>45460</v>
       </c>
       <c r="B246" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="2">
-        <v>45806</v>
+        <v>45461</v>
       </c>
       <c r="B247" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="2">
-        <v>45807</v>
+        <v>45479</v>
       </c>
       <c r="B248" t="s">
         <v>30</v>
@@ -2474,66 +2515,346 @@
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="2">
-        <v>45809</v>
+        <v>45480</v>
       </c>
       <c r="B249" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="2">
-        <v>45814</v>
+        <v>45480</v>
       </c>
       <c r="B250" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="2">
-        <v>45817</v>
+        <v>45521</v>
       </c>
       <c r="B251" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="2">
-        <v>45835</v>
+        <v>45551</v>
       </c>
       <c r="B252" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="2">
-        <v>45886</v>
+        <v>45651</v>
       </c>
       <c r="B253" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="2">
-        <v>45905</v>
+        <v>45652</v>
       </c>
       <c r="B254" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="2">
-        <v>46016</v>
+        <v>45658</v>
       </c>
       <c r="B255" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="2">
+        <v>45684</v>
+      </c>
+      <c r="B256" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2">
+      <c r="A257" s="2">
+        <v>45685</v>
+      </c>
+      <c r="B257" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
+      <c r="A258" s="2">
+        <v>45686</v>
+      </c>
+      <c r="B258" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
+      <c r="A259" s="2">
+        <v>45744</v>
+      </c>
+      <c r="B259" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2">
+      <c r="A260" s="2">
+        <v>45745</v>
+      </c>
+      <c r="B260" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
+      <c r="A261" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B261" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
+      <c r="A262" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B262" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2">
+      <c r="A263" s="2">
+        <v>45748</v>
+      </c>
+      <c r="B263" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
+      <c r="A264" s="2">
+        <v>45748</v>
+      </c>
+      <c r="B264" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2">
+      <c r="A265" s="2">
+        <v>45749</v>
+      </c>
+      <c r="B265" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2">
+      <c r="A266" s="2">
+        <v>45749</v>
+      </c>
+      <c r="B266" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2">
+      <c r="A267" s="2">
+        <v>45750</v>
+      </c>
+      <c r="B267" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2">
+      <c r="A268" s="2">
+        <v>45750</v>
+      </c>
+      <c r="B268" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2">
+      <c r="A269" s="2">
+        <v>45751</v>
+      </c>
+      <c r="B269" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2">
+      <c r="A270" s="2">
+        <v>45751</v>
+      </c>
+      <c r="B270" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2">
+      <c r="A271" s="2">
+        <v>45752</v>
+      </c>
+      <c r="B271" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2">
+      <c r="A272" s="2">
+        <v>45753</v>
+      </c>
+      <c r="B272" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
+      <c r="A273" s="2">
+        <v>45754</v>
+      </c>
+      <c r="B273" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2">
+      <c r="A274" s="2">
+        <v>45754</v>
+      </c>
+      <c r="B274" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2">
+      <c r="A275" s="2">
+        <v>45765</v>
+      </c>
+      <c r="B275" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
+      <c r="A276" s="2">
+        <v>45767</v>
+      </c>
+      <c r="B276" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2">
+      <c r="A277" s="2">
+        <v>45778</v>
+      </c>
+      <c r="B277" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2">
+      <c r="A278" s="2">
+        <v>45789</v>
+      </c>
+      <c r="B278" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2">
+      <c r="A279" s="2">
+        <v>45790</v>
+      </c>
+      <c r="B279" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
+      <c r="A280" s="2">
+        <v>45806</v>
+      </c>
+      <c r="B280" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2">
+      <c r="A281" s="2">
+        <v>45807</v>
+      </c>
+      <c r="B281" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2">
+      <c r="A282" s="2">
+        <v>45809</v>
+      </c>
+      <c r="B282" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2">
+      <c r="A283" s="2">
+        <v>45814</v>
+      </c>
+      <c r="B283" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2">
+      <c r="A284" s="2">
+        <v>45817</v>
+      </c>
+      <c r="B284" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2">
+      <c r="A285" s="2">
+        <v>45835</v>
+      </c>
+      <c r="B285" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2">
+      <c r="A286" s="2">
+        <v>45843</v>
+      </c>
+      <c r="B286" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2">
+      <c r="A287" s="2">
+        <v>45844</v>
+      </c>
+      <c r="B287" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2">
+      <c r="A288" s="2">
+        <v>45886</v>
+      </c>
+      <c r="B288" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2">
+      <c r="A289" s="2">
+        <v>45905</v>
+      </c>
+      <c r="B289" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2">
+      <c r="A290" s="2">
+        <v>46016</v>
+      </c>
+      <c r="B290" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2">
+      <c r="A291" s="2">
         <v>46017</v>
       </c>
-      <c r="B256" t="s">
-        <v>17</v>
+      <c r="B291" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -2543,7 +2864,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2551,26 +2872,50 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>44653</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="3">
         <v>44682</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="2">
+      <c r="A3" s="3">
         <v>45007</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="3">
         <v>45037</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="3">
+        <v>45361</v>
+      </c>
+      <c r="B4" s="3">
+        <v>45391</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="3">
+        <v>45717</v>
+      </c>
+      <c r="B5" s="3">
+        <v>45746</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="3">
+        <v>46070</v>
+      </c>
+      <c r="B6" s="3">
+        <v>46100</v>
       </c>
     </row>
   </sheetData>
@@ -2580,7 +2925,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2588,42 +2933,66 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>44725</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="3">
         <v>44729</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="2">
+      <c r="A3" s="3">
         <v>44900</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="3">
         <v>44904</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="2">
+      <c r="A4" s="3">
         <v>45089</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="3">
         <v>45093</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="2">
+      <c r="A5" s="3">
         <v>45264</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="3">
         <v>45268</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="3">
+        <v>45453</v>
+      </c>
+      <c r="B6" s="3">
+        <v>45457</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="3">
+        <v>45635</v>
+      </c>
+      <c r="B7" s="3">
+        <v>45639</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="3">
+        <v>45824</v>
+      </c>
+      <c r="B8" s="3">
+        <v>45828</v>
       </c>
     </row>
   </sheetData>
